--- a/pages/payslip/permanent/permanent_employees_report.xlsx
+++ b/pages/payslip/permanent/permanent_employees_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>San Mateo, Rizal</t>
   </si>
@@ -80,31 +80,40 @@
     <t>Comment/ Annotation</t>
   </si>
   <si>
-    <t>ghcfghfc</t>
-  </si>
-  <si>
-    <t>fgh</t>
-  </si>
-  <si>
-    <t>SG 7</t>
-  </si>
-  <si>
-    <t>453453453453</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>ghfghgf</t>
-  </si>
-  <si>
-    <t>Dorado, Eduardo Fernandez</t>
+    <t>Task Force</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>SG 28</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Maya Base</t>
+  </si>
+  <si>
+    <t>Granada, Romeo Pangilinan</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>04/25/2024</t>
+    <t>01/10/2002</t>
+  </si>
+  <si>
+    <t>1056555656152</t>
+  </si>
+  <si>
+    <t>04/09/2024</t>
+  </si>
+  <si>
+    <t>02/16/2023</t>
   </si>
   <si>
     <t>Active</t>
@@ -113,42 +122,6 @@
     <t>Eligible</t>
   </si>
   <si>
-    <t>gfhfghf</t>
-  </si>
-  <si>
-    <t>Task Force</t>
-  </si>
-  <si>
-    <t>0054</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>SG 28</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Maya Base</t>
-  </si>
-  <si>
-    <t>Granada, Romeo Pangilinan</t>
-  </si>
-  <si>
-    <t>01/10/2002</t>
-  </si>
-  <si>
-    <t>1056555656152</t>
-  </si>
-  <si>
-    <t>04/09/2024</t>
-  </si>
-  <si>
-    <t>02/16/2023</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
@@ -183,36 +156,6 @@
   </si>
   <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>Unit_test</t>
-  </si>
-  <si>
-    <t>Position_test</t>
-  </si>
-  <si>
-    <t>SG 12</t>
-  </si>
-  <si>
-    <t>Area_test</t>
-  </si>
-  <si>
-    <t>Bernardo, Rhea Guardiano</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>02/14/1998</t>
-  </si>
-  <si>
-    <t>04/12/2024</t>
-  </si>
-  <si>
-    <t>03/21/2024</t>
-  </si>
-  <si>
-    <t>test comment</t>
   </si>
 </sst>
 </file>
@@ -583,10 +526,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -742,26 +685,26 @@
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3">
-        <v>364543</v>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E5" s="3">
+        <v>2500000</v>
+      </c>
       <c r="F5" s="3">
-        <v>543453453</v>
+        <v>3000000</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="3">
-        <v>5435</v>
+        <v>3210</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>26</v>
@@ -778,222 +721,104 @@
       <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="3">
-        <v>453120010</v>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3">
-        <v>2500000</v>
+        <v>500000</v>
       </c>
       <c r="F6" s="3">
-        <v>3000000</v>
+        <v>465000</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3">
         <v>3210</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3">
         <v>5</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3">
-        <v>500000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>465000</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3210</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3">
-        <v>250000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>245000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1850</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1234567890</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
